--- a/jasmlFiles/jasmlFiles_metrics.xlsx
+++ b/jasmlFiles/jasmlFiles_metrics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\ES-2Sem-2021-Grupo-23\jasmlFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/681f1eba6f51bb15/Documentos/GitHub/ES-2Sem-2021-Grupo-23/jasmlFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_0813815EADD1B1508FDAC660FE9C8528BC73511F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69F46937-23BB-4DF7-BCE1-E714FD96F572}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="298">
   <si>
     <t>MethodID</t>
   </si>
@@ -910,12 +911,15 @@
   </si>
   <si>
     <t>processArgs(String[])</t>
+  </si>
+  <si>
+    <t>classe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,9 +957,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,19 +1240,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1280,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1304,11 +1312,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1564,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1820,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2076,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2172,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2332,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2364,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2492,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2524,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2588,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2652,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2748,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2812,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2876,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3228,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3260,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3356,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3420,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3644,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3708,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3772,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3964,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4028,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4156,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4188,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4252,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4412,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4476,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4508,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4636,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4764,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4796,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4828,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4860,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4956,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4988,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5084,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5116,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5180,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5212,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5308,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5372,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5436,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5596,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5660,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5692,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5820,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5852,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5916,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5948,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5980,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6044,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6076,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6460,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6492,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6588,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6620,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6652,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6716,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6748,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6780,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6812,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6844,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6908,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6940,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7036,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7068,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7100,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7132,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7196,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7324,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7356,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7388,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7420,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7452,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7484,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7516,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7580,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7612,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7676,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7708,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7804,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7836,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7868,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7900,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7932,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8124,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8156,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8220,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8252,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8284,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8348,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8412,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8476,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8508,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8540,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8572,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8604,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8668,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8700,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8732,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8796,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8828,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8860,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8892,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8956,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8988,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9020,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9052,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9180,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9208,8 +9216,11 @@
       <c r="I249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9237,8 +9248,11 @@
       <c r="I250">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9266,8 +9280,11 @@
       <c r="I251">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9295,8 +9312,11 @@
       <c r="I252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9324,8 +9344,11 @@
       <c r="I253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9353,8 +9376,11 @@
       <c r="I254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9382,8 +9408,12 @@
       <c r="I255">
         <v>20</v>
       </c>
+      <c r="J255" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jasmlFiles/jasmlFiles_metrics.xlsx
+++ b/jasmlFiles/jasmlFiles_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="297">
   <si>
     <t>MethodID</t>
   </si>
@@ -35,16 +35,10 @@
     <t>WMC_class</t>
   </si>
   <si>
-    <t>is_God_class</t>
-  </si>
-  <si>
     <t>LOC_method</t>
   </si>
   <si>
     <t>CYCLO_method</t>
-  </si>
-  <si>
-    <t>is_Long_method</t>
   </si>
   <si>
     <t>com.jasml.classes</t>
@@ -953,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K255"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -987,25 +981,19 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
@@ -1016,17 +1004,11 @@
       <c r="G2" t="n">
         <v>2.0</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="H2" t="n">
+        <v>5.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1034,13 +1016,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -1051,17 +1033,11 @@
       <c r="G3" t="n">
         <v>2.0</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="H3" t="n">
+        <v>5.0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1069,13 +1045,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -1086,17 +1062,11 @@
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
+      <c r="H4" t="n">
+        <v>6.0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1104,13 +1074,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
@@ -1121,17 +1091,11 @@
       <c r="G5" t="n">
         <v>2.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>7</v>
+      <c r="H5" t="n">
+        <v>6.0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1139,13 +1103,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>2.0</v>
@@ -1156,17 +1120,11 @@
       <c r="G6" t="n">
         <v>2.0</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
+      <c r="H6" t="n">
+        <v>6.0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1174,13 +1132,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
         <v>2.0</v>
@@ -1191,17 +1149,11 @@
       <c r="G7" t="n">
         <v>2.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>7</v>
+      <c r="H7" t="n">
+        <v>6.0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1209,13 +1161,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>2.0</v>
@@ -1226,17 +1178,11 @@
       <c r="G8" t="n">
         <v>2.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
+      <c r="H8" t="n">
+        <v>6.0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1244,13 +1190,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -1261,17 +1207,11 @@
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>7</v>
+      <c r="H9" t="n">
+        <v>4.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1279,13 +1219,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
@@ -1296,17 +1236,11 @@
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
+      <c r="H10" t="n">
+        <v>3.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1314,13 +1248,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
@@ -1331,17 +1265,11 @@
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
+      <c r="H11" t="n">
+        <v>5.0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1349,13 +1277,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -1366,17 +1294,11 @@
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>7</v>
+      <c r="H12" t="n">
+        <v>6.0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1384,13 +1306,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -1401,17 +1323,11 @@
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>7</v>
+      <c r="H13" t="n">
+        <v>6.0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1419,13 +1335,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -1436,17 +1352,11 @@
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>7</v>
+      <c r="H14" t="n">
+        <v>4.0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1454,13 +1364,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -1471,17 +1381,11 @@
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>7</v>
+      <c r="H15" t="n">
+        <v>4.0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1489,13 +1393,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -1506,17 +1410,11 @@
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>7</v>
+      <c r="H16" t="n">
+        <v>7.0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1524,13 +1422,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -1541,17 +1439,11 @@
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>7</v>
+      <c r="H17" t="n">
+        <v>7.0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1559,13 +1451,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -1576,17 +1468,11 @@
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>7</v>
+      <c r="H18" t="n">
+        <v>4.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1594,13 +1480,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -1611,17 +1497,11 @@
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
-      <c r="H19" t="s">
-        <v>7</v>
+      <c r="H19" t="n">
+        <v>3.0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1629,13 +1509,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
         <v>4.0</v>
@@ -1646,17 +1526,11 @@
       <c r="G20" t="n">
         <v>7.0</v>
       </c>
-      <c r="H20" t="s">
-        <v>7</v>
+      <c r="H20" t="n">
+        <v>3.0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1664,13 +1538,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>4.0</v>
@@ -1681,17 +1555,11 @@
       <c r="G21" t="n">
         <v>7.0</v>
       </c>
-      <c r="H21" t="s">
-        <v>7</v>
+      <c r="H21" t="n">
+        <v>3.0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1699,13 +1567,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
         <v>4.0</v>
@@ -1716,17 +1584,11 @@
       <c r="G22" t="n">
         <v>7.0</v>
       </c>
-      <c r="H22" t="s">
-        <v>7</v>
+      <c r="H22" t="n">
+        <v>3.0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1734,13 +1596,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
         <v>4.0</v>
@@ -1751,17 +1613,11 @@
       <c r="G23" t="n">
         <v>7.0</v>
       </c>
-      <c r="H23" t="s">
-        <v>7</v>
+      <c r="H23" t="n">
+        <v>3.0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J23" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1769,13 +1625,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -1786,17 +1642,11 @@
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" t="s">
-        <v>7</v>
+      <c r="H24" t="n">
+        <v>4.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1804,13 +1654,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
         <v>2.0</v>
@@ -1821,17 +1671,11 @@
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
-      <c r="H25" t="s">
-        <v>7</v>
+      <c r="H25" t="n">
+        <v>4.0</v>
       </c>
       <c r="I25" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1839,13 +1683,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>2.0</v>
@@ -1856,17 +1700,11 @@
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
-      <c r="H26" t="s">
-        <v>7</v>
+      <c r="H26" t="n">
+        <v>4.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1874,13 +1712,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>2.0</v>
@@ -1891,17 +1729,11 @@
       <c r="G27" t="n">
         <v>2.0</v>
       </c>
-      <c r="H27" t="s">
-        <v>7</v>
+      <c r="H27" t="n">
+        <v>4.0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1909,13 +1741,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
         <v>2.0</v>
@@ -1926,17 +1758,11 @@
       <c r="G28" t="n">
         <v>2.0</v>
       </c>
-      <c r="H28" t="s">
-        <v>7</v>
+      <c r="H28" t="n">
+        <v>4.0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1944,13 +1770,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
@@ -1961,17 +1787,11 @@
       <c r="G29" t="n">
         <v>2.0</v>
       </c>
-      <c r="H29" t="s">
-        <v>7</v>
+      <c r="H29" t="n">
+        <v>5.0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1979,13 +1799,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
@@ -1996,17 +1816,11 @@
       <c r="G30" t="n">
         <v>2.0</v>
       </c>
-      <c r="H30" t="s">
-        <v>7</v>
+      <c r="H30" t="n">
+        <v>5.0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -2014,13 +1828,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
@@ -2031,17 +1845,11 @@
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
-      <c r="H31" t="s">
-        <v>7</v>
+      <c r="H31" t="n">
+        <v>4.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -2049,13 +1857,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
@@ -2066,17 +1874,11 @@
       <c r="G32" t="n">
         <v>2.0</v>
       </c>
-      <c r="H32" t="s">
-        <v>7</v>
+      <c r="H32" t="n">
+        <v>4.0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -2084,13 +1886,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
@@ -2101,17 +1903,11 @@
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
-      <c r="H33" t="s">
-        <v>7</v>
+      <c r="H33" t="n">
+        <v>4.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -2119,13 +1915,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
@@ -2136,17 +1932,11 @@
       <c r="G34" t="n">
         <v>2.0</v>
       </c>
-      <c r="H34" t="s">
-        <v>7</v>
+      <c r="H34" t="n">
+        <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -2154,13 +1944,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
@@ -2171,17 +1961,11 @@
       <c r="G35" t="n">
         <v>2.0</v>
       </c>
-      <c r="H35" t="s">
-        <v>7</v>
+      <c r="H35" t="n">
+        <v>5.0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -2189,13 +1973,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
@@ -2206,17 +1990,11 @@
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
-      <c r="H36" t="s">
-        <v>7</v>
+      <c r="H36" t="n">
+        <v>5.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -2224,13 +2002,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" t="n">
         <v>3.0</v>
@@ -2241,17 +2019,11 @@
       <c r="G37" t="n">
         <v>3.0</v>
       </c>
-      <c r="H37" t="s">
-        <v>7</v>
+      <c r="H37" t="n">
+        <v>4.0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -2259,13 +2031,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
         <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
       </c>
       <c r="E38" t="n">
         <v>3.0</v>
@@ -2276,17 +2048,11 @@
       <c r="G38" t="n">
         <v>3.0</v>
       </c>
-      <c r="H38" t="s">
-        <v>7</v>
+      <c r="H38" t="n">
+        <v>4.0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -2294,13 +2060,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" t="n">
         <v>3.0</v>
@@ -2311,17 +2077,11 @@
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
-      <c r="H39" t="s">
-        <v>7</v>
+      <c r="H39" t="n">
+        <v>4.0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2329,13 +2089,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" t="n">
         <v>2.0</v>
@@ -2346,17 +2106,11 @@
       <c r="G40" t="n">
         <v>2.0</v>
       </c>
-      <c r="H40" t="s">
-        <v>7</v>
+      <c r="H40" t="n">
+        <v>5.0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -2364,13 +2118,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
@@ -2381,17 +2135,11 @@
       <c r="G41" t="n">
         <v>2.0</v>
       </c>
-      <c r="H41" t="s">
-        <v>7</v>
+      <c r="H41" t="n">
+        <v>5.0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -2399,13 +2147,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E42" t="n">
         <v>2.0</v>
@@ -2416,17 +2164,11 @@
       <c r="G42" t="n">
         <v>2.0</v>
       </c>
-      <c r="H42" t="s">
-        <v>7</v>
+      <c r="H42" t="n">
+        <v>5.0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -2434,13 +2176,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
@@ -2451,17 +2193,11 @@
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
-      <c r="H43" t="s">
-        <v>7</v>
+      <c r="H43" t="n">
+        <v>5.0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -2469,13 +2205,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
@@ -2486,17 +2222,11 @@
       <c r="G44" t="n">
         <v>2.0</v>
       </c>
-      <c r="H44" t="s">
-        <v>7</v>
+      <c r="H44" t="n">
+        <v>4.0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -2504,13 +2234,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" t="n">
         <v>2.0</v>
@@ -2521,17 +2251,11 @@
       <c r="G45" t="n">
         <v>2.0</v>
       </c>
-      <c r="H45" t="s">
-        <v>7</v>
+      <c r="H45" t="n">
+        <v>4.0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -2539,13 +2263,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
@@ -2556,17 +2280,11 @@
       <c r="G46" t="n">
         <v>2.0</v>
       </c>
-      <c r="H46" t="s">
-        <v>7</v>
+      <c r="H46" t="n">
+        <v>4.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -2574,13 +2292,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
@@ -2591,17 +2309,11 @@
       <c r="G47" t="n">
         <v>2.0</v>
       </c>
-      <c r="H47" t="s">
-        <v>7</v>
+      <c r="H47" t="n">
+        <v>4.0</v>
       </c>
       <c r="I47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -2609,13 +2321,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -2626,17 +2338,11 @@
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
-      <c r="H48" t="s">
-        <v>7</v>
+      <c r="H48" t="n">
+        <v>7.0</v>
       </c>
       <c r="I48" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -2644,13 +2350,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -2661,17 +2367,11 @@
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="H49" t="s">
-        <v>7</v>
+      <c r="H49" t="n">
+        <v>7.0</v>
       </c>
       <c r="I49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -2679,13 +2379,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
         <v>79</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>81</v>
       </c>
       <c r="E50" t="n">
         <v>25.0</v>
@@ -2696,17 +2396,11 @@
       <c r="G50" t="n">
         <v>52.0</v>
       </c>
-      <c r="H50" t="s">
-        <v>7</v>
+      <c r="H50" t="n">
+        <v>4.0</v>
       </c>
       <c r="I50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2714,13 +2408,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
         <v>80</v>
-      </c>
-      <c r="D51" t="s">
-        <v>82</v>
       </c>
       <c r="E51" t="n">
         <v>25.0</v>
@@ -2731,17 +2425,11 @@
       <c r="G51" t="n">
         <v>52.0</v>
       </c>
-      <c r="H51" t="s">
-        <v>7</v>
+      <c r="H51" t="n">
+        <v>4.0</v>
       </c>
       <c r="I51" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -2749,13 +2437,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" t="n">
         <v>25.0</v>
@@ -2766,17 +2454,11 @@
       <c r="G52" t="n">
         <v>52.0</v>
       </c>
-      <c r="H52" t="s">
-        <v>7</v>
+      <c r="H52" t="n">
+        <v>4.0</v>
       </c>
       <c r="I52" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -2784,13 +2466,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53" t="n">
         <v>25.0</v>
@@ -2801,17 +2483,11 @@
       <c r="G53" t="n">
         <v>52.0</v>
       </c>
-      <c r="H53" t="s">
-        <v>7</v>
+      <c r="H53" t="n">
+        <v>4.0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -2819,13 +2495,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54" t="n">
         <v>25.0</v>
@@ -2836,17 +2512,11 @@
       <c r="G54" t="n">
         <v>52.0</v>
       </c>
-      <c r="H54" t="s">
-        <v>7</v>
+      <c r="H54" t="n">
+        <v>4.0</v>
       </c>
       <c r="I54" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -2854,13 +2524,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55" t="n">
         <v>25.0</v>
@@ -2871,17 +2541,11 @@
       <c r="G55" t="n">
         <v>52.0</v>
       </c>
-      <c r="H55" t="s">
-        <v>7</v>
+      <c r="H55" t="n">
+        <v>4.0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -2889,13 +2553,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E56" t="n">
         <v>25.0</v>
@@ -2906,17 +2570,11 @@
       <c r="G56" t="n">
         <v>52.0</v>
       </c>
-      <c r="H56" t="s">
-        <v>7</v>
+      <c r="H56" t="n">
+        <v>4.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -2924,13 +2582,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57" t="n">
         <v>25.0</v>
@@ -2941,17 +2599,11 @@
       <c r="G57" t="n">
         <v>52.0</v>
       </c>
-      <c r="H57" t="s">
-        <v>7</v>
+      <c r="H57" t="n">
+        <v>4.0</v>
       </c>
       <c r="I57" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -2959,13 +2611,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" t="n">
         <v>25.0</v>
@@ -2976,17 +2628,11 @@
       <c r="G58" t="n">
         <v>52.0</v>
       </c>
-      <c r="H58" t="s">
-        <v>7</v>
+      <c r="H58" t="n">
+        <v>4.0</v>
       </c>
       <c r="I58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -2994,13 +2640,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" t="n">
         <v>25.0</v>
@@ -3011,17 +2657,11 @@
       <c r="G59" t="n">
         <v>52.0</v>
       </c>
-      <c r="H59" t="s">
-        <v>7</v>
+      <c r="H59" t="n">
+        <v>4.0</v>
       </c>
       <c r="I59" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -3029,13 +2669,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E60" t="n">
         <v>25.0</v>
@@ -3046,17 +2686,11 @@
       <c r="G60" t="n">
         <v>52.0</v>
       </c>
-      <c r="H60" t="s">
-        <v>7</v>
+      <c r="H60" t="n">
+        <v>4.0</v>
       </c>
       <c r="I60" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
@@ -3064,13 +2698,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" t="n">
         <v>25.0</v>
@@ -3081,17 +2715,11 @@
       <c r="G61" t="n">
         <v>52.0</v>
       </c>
-      <c r="H61" t="s">
-        <v>7</v>
+      <c r="H61" t="n">
+        <v>4.0</v>
       </c>
       <c r="I61" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
@@ -3099,13 +2727,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E62" t="n">
         <v>25.0</v>
@@ -3116,17 +2744,11 @@
       <c r="G62" t="n">
         <v>52.0</v>
       </c>
-      <c r="H62" t="s">
-        <v>7</v>
+      <c r="H62" t="n">
+        <v>4.0</v>
       </c>
       <c r="I62" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -3134,13 +2756,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E63" t="n">
         <v>25.0</v>
@@ -3151,17 +2773,11 @@
       <c r="G63" t="n">
         <v>52.0</v>
       </c>
-      <c r="H63" t="s">
-        <v>7</v>
+      <c r="H63" t="n">
+        <v>4.0</v>
       </c>
       <c r="I63" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -3169,13 +2785,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" t="n">
         <v>25.0</v>
@@ -3186,17 +2802,11 @@
       <c r="G64" t="n">
         <v>52.0</v>
       </c>
-      <c r="H64" t="s">
-        <v>7</v>
+      <c r="H64" t="n">
+        <v>4.0</v>
       </c>
       <c r="I64" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -3204,13 +2814,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" t="n">
         <v>25.0</v>
@@ -3221,17 +2831,11 @@
       <c r="G65" t="n">
         <v>52.0</v>
       </c>
-      <c r="H65" t="s">
-        <v>7</v>
+      <c r="H65" t="n">
+        <v>4.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K65" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -3239,13 +2843,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" t="n">
         <v>25.0</v>
@@ -3256,17 +2860,11 @@
       <c r="G66" t="n">
         <v>52.0</v>
       </c>
-      <c r="H66" t="s">
-        <v>7</v>
+      <c r="H66" t="n">
+        <v>4.0</v>
       </c>
       <c r="I66" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K66" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -3274,13 +2872,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67" t="n">
         <v>25.0</v>
@@ -3291,17 +2889,11 @@
       <c r="G67" t="n">
         <v>52.0</v>
       </c>
-      <c r="H67" t="s">
-        <v>7</v>
+      <c r="H67" t="n">
+        <v>4.0</v>
       </c>
       <c r="I67" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
@@ -3309,13 +2901,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E68" t="n">
         <v>25.0</v>
@@ -3326,17 +2918,11 @@
       <c r="G68" t="n">
         <v>52.0</v>
       </c>
-      <c r="H68" t="s">
-        <v>7</v>
+      <c r="H68" t="n">
+        <v>4.0</v>
       </c>
       <c r="I68" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -3344,13 +2930,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E69" t="n">
         <v>25.0</v>
@@ -3361,17 +2947,11 @@
       <c r="G69" t="n">
         <v>52.0</v>
       </c>
-      <c r="H69" t="s">
-        <v>7</v>
+      <c r="H69" t="n">
+        <v>4.0</v>
       </c>
       <c r="I69" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
@@ -3379,13 +2959,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" t="n">
         <v>25.0</v>
@@ -3396,17 +2976,11 @@
       <c r="G70" t="n">
         <v>52.0</v>
       </c>
-      <c r="H70" t="s">
-        <v>7</v>
+      <c r="H70" t="n">
+        <v>4.0</v>
       </c>
       <c r="I70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -3414,13 +2988,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
         <v>25.0</v>
@@ -3431,17 +3005,11 @@
       <c r="G71" t="n">
         <v>52.0</v>
       </c>
-      <c r="H71" t="s">
-        <v>7</v>
+      <c r="H71" t="n">
+        <v>4.0</v>
       </c>
       <c r="I71" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -3449,13 +3017,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E72" t="n">
         <v>25.0</v>
@@ -3466,17 +3034,11 @@
       <c r="G72" t="n">
         <v>52.0</v>
       </c>
-      <c r="H72" t="s">
-        <v>7</v>
+      <c r="H72" t="n">
+        <v>4.0</v>
       </c>
       <c r="I72" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
@@ -3484,13 +3046,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E73" t="n">
         <v>25.0</v>
@@ -3501,17 +3063,11 @@
       <c r="G73" t="n">
         <v>52.0</v>
       </c>
-      <c r="H73" t="s">
-        <v>7</v>
+      <c r="H73" t="n">
+        <v>4.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -3519,13 +3075,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" t="n">
         <v>25.0</v>
@@ -3536,17 +3092,11 @@
       <c r="G74" t="n">
         <v>52.0</v>
       </c>
-      <c r="H74" t="s">
-        <v>7</v>
+      <c r="H74" t="n">
+        <v>4.0</v>
       </c>
       <c r="I74" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -3554,13 +3104,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E75" t="n">
         <v>4.0</v>
@@ -3571,17 +3121,11 @@
       <c r="G75" t="n">
         <v>4.0</v>
       </c>
-      <c r="H75" t="s">
-        <v>7</v>
+      <c r="H75" t="n">
+        <v>3.0</v>
       </c>
       <c r="I75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -3589,13 +3133,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
         <v>106</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
       </c>
       <c r="E76" t="n">
         <v>4.0</v>
@@ -3606,17 +3150,11 @@
       <c r="G76" t="n">
         <v>4.0</v>
       </c>
-      <c r="H76" t="s">
-        <v>7</v>
+      <c r="H76" t="n">
+        <v>3.0</v>
       </c>
       <c r="I76" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -3624,13 +3162,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E77" t="n">
         <v>4.0</v>
@@ -3641,17 +3179,11 @@
       <c r="G77" t="n">
         <v>4.0</v>
       </c>
-      <c r="H77" t="s">
-        <v>7</v>
+      <c r="H77" t="n">
+        <v>3.0</v>
       </c>
       <c r="I77" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -3659,13 +3191,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="n">
         <v>4.0</v>
@@ -3676,17 +3208,11 @@
       <c r="G78" t="n">
         <v>4.0</v>
       </c>
-      <c r="H78" t="s">
-        <v>7</v>
+      <c r="H78" t="n">
+        <v>3.0</v>
       </c>
       <c r="I78" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -3694,13 +3220,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" t="n">
         <v>10.0</v>
@@ -3711,17 +3237,11 @@
       <c r="G79" t="n">
         <v>47.0</v>
       </c>
-      <c r="H79" t="s">
-        <v>7</v>
+      <c r="H79" t="n">
+        <v>4.0</v>
       </c>
       <c r="I79" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -3729,13 +3249,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" t="s">
         <v>111</v>
-      </c>
-      <c r="D80" t="s">
-        <v>113</v>
       </c>
       <c r="E80" t="n">
         <v>10.0</v>
@@ -3746,17 +3266,11 @@
       <c r="G80" t="n">
         <v>47.0</v>
       </c>
-      <c r="H80" t="s">
-        <v>7</v>
+      <c r="H80" t="n">
+        <v>4.0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -3764,13 +3278,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" t="n">
         <v>10.0</v>
@@ -3781,17 +3295,11 @@
       <c r="G81" t="n">
         <v>47.0</v>
       </c>
-      <c r="H81" t="s">
-        <v>7</v>
+      <c r="H81" t="n">
+        <v>4.0</v>
       </c>
       <c r="I81" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -3799,13 +3307,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E82" t="n">
         <v>10.0</v>
@@ -3816,17 +3324,11 @@
       <c r="G82" t="n">
         <v>47.0</v>
       </c>
-      <c r="H82" t="s">
-        <v>7</v>
+      <c r="H82" t="n">
+        <v>4.0</v>
       </c>
       <c r="I82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J82" t="n">
         <v>14.0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -3834,13 +3336,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
         <v>10.0</v>
@@ -3851,17 +3353,11 @@
       <c r="G83" t="n">
         <v>47.0</v>
       </c>
-      <c r="H83" t="s">
-        <v>7</v>
+      <c r="H83" t="n">
+        <v>4.0</v>
       </c>
       <c r="I83" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -3869,13 +3365,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E84" t="n">
         <v>10.0</v>
@@ -3886,17 +3382,11 @@
       <c r="G84" t="n">
         <v>47.0</v>
       </c>
-      <c r="H84" t="s">
-        <v>7</v>
+      <c r="H84" t="n">
+        <v>4.0</v>
       </c>
       <c r="I84" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -3904,13 +3394,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" t="n">
         <v>10.0</v>
@@ -3921,17 +3411,11 @@
       <c r="G85" t="n">
         <v>47.0</v>
       </c>
-      <c r="H85" t="s">
-        <v>7</v>
+      <c r="H85" t="n">
+        <v>4.0</v>
       </c>
       <c r="I85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -3939,13 +3423,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
         <v>10.0</v>
@@ -3956,17 +3440,11 @@
       <c r="G86" t="n">
         <v>47.0</v>
       </c>
-      <c r="H86" t="s">
-        <v>7</v>
+      <c r="H86" t="n">
+        <v>4.0</v>
       </c>
       <c r="I86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -3974,13 +3452,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E87" t="n">
         <v>10.0</v>
@@ -3991,17 +3469,11 @@
       <c r="G87" t="n">
         <v>47.0</v>
       </c>
-      <c r="H87" t="s">
-        <v>7</v>
+      <c r="H87" t="n">
+        <v>4.0</v>
       </c>
       <c r="I87" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -4009,13 +3481,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E88" t="n">
         <v>10.0</v>
@@ -4026,17 +3498,11 @@
       <c r="G88" t="n">
         <v>47.0</v>
       </c>
-      <c r="H88" t="s">
-        <v>7</v>
+      <c r="H88" t="n">
+        <v>4.0</v>
       </c>
       <c r="I88" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J88" t="n">
         <v>19.0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -4044,13 +3510,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E89" t="n">
         <v>7.0</v>
@@ -4061,17 +3527,11 @@
       <c r="G89" t="n">
         <v>13.0</v>
       </c>
-      <c r="H89" t="s">
-        <v>7</v>
+      <c r="H89" t="n">
+        <v>6.0</v>
       </c>
       <c r="I89" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -4079,13 +3539,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" t="s">
         <v>122</v>
-      </c>
-      <c r="D90" t="s">
-        <v>124</v>
       </c>
       <c r="E90" t="n">
         <v>7.0</v>
@@ -4096,17 +3556,11 @@
       <c r="G90" t="n">
         <v>13.0</v>
       </c>
-      <c r="H90" t="s">
-        <v>7</v>
+      <c r="H90" t="n">
+        <v>6.0</v>
       </c>
       <c r="I90" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -4114,13 +3568,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E91" t="n">
         <v>7.0</v>
@@ -4131,17 +3585,11 @@
       <c r="G91" t="n">
         <v>13.0</v>
       </c>
-      <c r="H91" t="s">
-        <v>7</v>
+      <c r="H91" t="n">
+        <v>6.0</v>
       </c>
       <c r="I91" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -4149,13 +3597,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E92" t="n">
         <v>7.0</v>
@@ -4166,17 +3614,11 @@
       <c r="G92" t="n">
         <v>13.0</v>
       </c>
-      <c r="H92" t="s">
-        <v>7</v>
+      <c r="H92" t="n">
+        <v>6.0</v>
       </c>
       <c r="I92" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -4184,13 +3626,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E93" t="n">
         <v>7.0</v>
@@ -4201,17 +3643,11 @@
       <c r="G93" t="n">
         <v>13.0</v>
       </c>
-      <c r="H93" t="s">
-        <v>7</v>
+      <c r="H93" t="n">
+        <v>6.0</v>
       </c>
       <c r="I93" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -4219,13 +3655,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E94" t="n">
         <v>7.0</v>
@@ -4236,17 +3672,11 @@
       <c r="G94" t="n">
         <v>13.0</v>
       </c>
-      <c r="H94" t="s">
-        <v>7</v>
+      <c r="H94" t="n">
+        <v>6.0</v>
       </c>
       <c r="I94" t="n">
         <v>6.0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4254,13 +3684,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E95" t="n">
         <v>7.0</v>
@@ -4271,17 +3701,11 @@
       <c r="G95" t="n">
         <v>13.0</v>
       </c>
-      <c r="H95" t="s">
-        <v>7</v>
+      <c r="H95" t="n">
+        <v>6.0</v>
       </c>
       <c r="I95" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
@@ -4289,13 +3713,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E96" t="n">
         <v>32.0</v>
@@ -4306,17 +3730,11 @@
       <c r="G96" t="n">
         <v>137.0</v>
       </c>
-      <c r="H96" t="s">
-        <v>7</v>
+      <c r="H96" t="n">
+        <v>3.0</v>
       </c>
       <c r="I96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
@@ -4324,13 +3742,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
         <v>130</v>
-      </c>
-      <c r="D97" t="s">
-        <v>132</v>
       </c>
       <c r="E97" t="n">
         <v>32.0</v>
@@ -4341,17 +3759,11 @@
       <c r="G97" t="n">
         <v>137.0</v>
       </c>
-      <c r="H97" t="s">
-        <v>7</v>
+      <c r="H97" t="n">
+        <v>3.0</v>
       </c>
       <c r="I97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K97" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
@@ -4359,13 +3771,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E98" t="n">
         <v>32.0</v>
@@ -4376,17 +3788,11 @@
       <c r="G98" t="n">
         <v>137.0</v>
       </c>
-      <c r="H98" t="s">
-        <v>7</v>
+      <c r="H98" t="n">
+        <v>3.0</v>
       </c>
       <c r="I98" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K98" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -4394,13 +3800,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E99" t="n">
         <v>32.0</v>
@@ -4411,17 +3817,11 @@
       <c r="G99" t="n">
         <v>137.0</v>
       </c>
-      <c r="H99" t="s">
-        <v>7</v>
+      <c r="H99" t="n">
+        <v>3.0</v>
       </c>
       <c r="I99" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -4429,13 +3829,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E100" t="n">
         <v>32.0</v>
@@ -4446,17 +3846,11 @@
       <c r="G100" t="n">
         <v>137.0</v>
       </c>
-      <c r="H100" t="s">
-        <v>7</v>
+      <c r="H100" t="n">
+        <v>3.0</v>
       </c>
       <c r="I100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
@@ -4464,13 +3858,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E101" t="n">
         <v>32.0</v>
@@ -4481,17 +3875,11 @@
       <c r="G101" t="n">
         <v>137.0</v>
       </c>
-      <c r="H101" t="s">
-        <v>7</v>
+      <c r="H101" t="n">
+        <v>3.0</v>
       </c>
       <c r="I101" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="102">
@@ -4499,13 +3887,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E102" t="n">
         <v>32.0</v>
@@ -4516,17 +3904,11 @@
       <c r="G102" t="n">
         <v>137.0</v>
       </c>
-      <c r="H102" t="s">
-        <v>7</v>
+      <c r="H102" t="n">
+        <v>3.0</v>
       </c>
       <c r="I102" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
@@ -4534,13 +3916,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E103" t="n">
         <v>32.0</v>
@@ -4551,17 +3933,11 @@
       <c r="G103" t="n">
         <v>137.0</v>
       </c>
-      <c r="H103" t="s">
-        <v>7</v>
+      <c r="H103" t="n">
+        <v>3.0</v>
       </c>
       <c r="I103" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K103" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
@@ -4569,13 +3945,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E104" t="n">
         <v>32.0</v>
@@ -4586,17 +3962,11 @@
       <c r="G104" t="n">
         <v>137.0</v>
       </c>
-      <c r="H104" t="s">
-        <v>7</v>
+      <c r="H104" t="n">
+        <v>3.0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="105">
@@ -4604,13 +3974,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E105" t="n">
         <v>32.0</v>
@@ -4621,17 +3991,11 @@
       <c r="G105" t="n">
         <v>137.0</v>
       </c>
-      <c r="H105" t="s">
-        <v>7</v>
+      <c r="H105" t="n">
+        <v>3.0</v>
       </c>
       <c r="I105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -4639,13 +4003,13 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E106" t="n">
         <v>32.0</v>
@@ -4656,17 +4020,11 @@
       <c r="G106" t="n">
         <v>137.0</v>
       </c>
-      <c r="H106" t="s">
-        <v>7</v>
+      <c r="H106" t="n">
+        <v>3.0</v>
       </c>
       <c r="I106" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J106" t="n">
         <v>73.0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -4674,13 +4032,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E107" t="n">
         <v>32.0</v>
@@ -4691,17 +4049,11 @@
       <c r="G107" t="n">
         <v>137.0</v>
       </c>
-      <c r="H107" t="s">
-        <v>7</v>
+      <c r="H107" t="n">
+        <v>3.0</v>
       </c>
       <c r="I107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J107" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -4709,13 +4061,13 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E108" t="n">
         <v>32.0</v>
@@ -4726,17 +4078,11 @@
       <c r="G108" t="n">
         <v>137.0</v>
       </c>
-      <c r="H108" t="s">
-        <v>7</v>
+      <c r="H108" t="n">
+        <v>3.0</v>
       </c>
       <c r="I108" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J108" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K108" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4090,13 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E109" t="n">
         <v>32.0</v>
@@ -4761,17 +4107,11 @@
       <c r="G109" t="n">
         <v>137.0</v>
       </c>
-      <c r="H109" t="s">
-        <v>7</v>
+      <c r="H109" t="n">
+        <v>3.0</v>
       </c>
       <c r="I109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
@@ -4779,13 +4119,13 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E110" t="n">
         <v>32.0</v>
@@ -4796,17 +4136,11 @@
       <c r="G110" t="n">
         <v>137.0</v>
       </c>
-      <c r="H110" t="s">
-        <v>7</v>
+      <c r="H110" t="n">
+        <v>3.0</v>
       </c>
       <c r="I110" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K110" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -4814,13 +4148,13 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E111" t="n">
         <v>32.0</v>
@@ -4831,17 +4165,11 @@
       <c r="G111" t="n">
         <v>137.0</v>
       </c>
-      <c r="H111" t="s">
-        <v>7</v>
+      <c r="H111" t="n">
+        <v>3.0</v>
       </c>
       <c r="I111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="112">
@@ -4849,13 +4177,13 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E112" t="n">
         <v>32.0</v>
@@ -4866,17 +4194,11 @@
       <c r="G112" t="n">
         <v>137.0</v>
       </c>
-      <c r="H112" t="s">
-        <v>7</v>
+      <c r="H112" t="n">
+        <v>3.0</v>
       </c>
       <c r="I112" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K112" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
@@ -4884,13 +4206,13 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E113" t="n">
         <v>32.0</v>
@@ -4901,17 +4223,11 @@
       <c r="G113" t="n">
         <v>137.0</v>
       </c>
-      <c r="H113" t="s">
-        <v>7</v>
+      <c r="H113" t="n">
+        <v>3.0</v>
       </c>
       <c r="I113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K113" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -4919,13 +4235,13 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E114" t="n">
         <v>32.0</v>
@@ -4936,17 +4252,11 @@
       <c r="G114" t="n">
         <v>137.0</v>
       </c>
-      <c r="H114" t="s">
-        <v>7</v>
+      <c r="H114" t="n">
+        <v>3.0</v>
       </c>
       <c r="I114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K114" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -4954,13 +4264,13 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E115" t="n">
         <v>32.0</v>
@@ -4971,17 +4281,11 @@
       <c r="G115" t="n">
         <v>137.0</v>
       </c>
-      <c r="H115" t="s">
-        <v>7</v>
+      <c r="H115" t="n">
+        <v>3.0</v>
       </c>
       <c r="I115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -4989,13 +4293,13 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E116" t="n">
         <v>32.0</v>
@@ -5006,17 +4310,11 @@
       <c r="G116" t="n">
         <v>137.0</v>
       </c>
-      <c r="H116" t="s">
-        <v>7</v>
+      <c r="H116" t="n">
+        <v>3.0</v>
       </c>
       <c r="I116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
@@ -5024,13 +4322,13 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E117" t="n">
         <v>32.0</v>
@@ -5041,17 +4339,11 @@
       <c r="G117" t="n">
         <v>137.0</v>
       </c>
-      <c r="H117" t="s">
-        <v>7</v>
+      <c r="H117" t="n">
+        <v>3.0</v>
       </c>
       <c r="I117" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -5059,13 +4351,13 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E118" t="n">
         <v>32.0</v>
@@ -5076,17 +4368,11 @@
       <c r="G118" t="n">
         <v>137.0</v>
       </c>
-      <c r="H118" t="s">
-        <v>7</v>
+      <c r="H118" t="n">
+        <v>3.0</v>
       </c>
       <c r="I118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J118" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K118" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -5094,13 +4380,13 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E119" t="n">
         <v>32.0</v>
@@ -5111,17 +4397,11 @@
       <c r="G119" t="n">
         <v>137.0</v>
       </c>
-      <c r="H119" t="s">
-        <v>7</v>
+      <c r="H119" t="n">
+        <v>3.0</v>
       </c>
       <c r="I119" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K119" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -5129,13 +4409,13 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E120" t="n">
         <v>32.0</v>
@@ -5146,17 +4426,11 @@
       <c r="G120" t="n">
         <v>137.0</v>
       </c>
-      <c r="H120" t="s">
-        <v>7</v>
+      <c r="H120" t="n">
+        <v>3.0</v>
       </c>
       <c r="I120" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -5164,13 +4438,13 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E121" t="n">
         <v>32.0</v>
@@ -5181,17 +4455,11 @@
       <c r="G121" t="n">
         <v>137.0</v>
       </c>
-      <c r="H121" t="s">
-        <v>7</v>
+      <c r="H121" t="n">
+        <v>3.0</v>
       </c>
       <c r="I121" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J121" t="n">
         <v>14.0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -5199,13 +4467,13 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E122" t="n">
         <v>32.0</v>
@@ -5216,17 +4484,11 @@
       <c r="G122" t="n">
         <v>137.0</v>
       </c>
-      <c r="H122" t="s">
-        <v>7</v>
+      <c r="H122" t="n">
+        <v>3.0</v>
       </c>
       <c r="I122" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K122" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -5234,13 +4496,13 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E123" t="n">
         <v>32.0</v>
@@ -5251,17 +4513,11 @@
       <c r="G123" t="n">
         <v>137.0</v>
       </c>
-      <c r="H123" t="s">
-        <v>7</v>
+      <c r="H123" t="n">
+        <v>3.0</v>
       </c>
       <c r="I123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K123" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -5269,13 +4525,13 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E124" t="n">
         <v>32.0</v>
@@ -5286,17 +4542,11 @@
       <c r="G124" t="n">
         <v>137.0</v>
       </c>
-      <c r="H124" t="s">
-        <v>7</v>
+      <c r="H124" t="n">
+        <v>3.0</v>
       </c>
       <c r="I124" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K124" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -5304,13 +4554,13 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E125" t="n">
         <v>32.0</v>
@@ -5321,17 +4571,11 @@
       <c r="G125" t="n">
         <v>137.0</v>
       </c>
-      <c r="H125" t="s">
-        <v>7</v>
+      <c r="H125" t="n">
+        <v>3.0</v>
       </c>
       <c r="I125" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K125" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
@@ -5339,13 +4583,13 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E126" t="n">
         <v>32.0</v>
@@ -5356,17 +4600,11 @@
       <c r="G126" t="n">
         <v>137.0</v>
       </c>
-      <c r="H126" t="s">
-        <v>7</v>
+      <c r="H126" t="n">
+        <v>3.0</v>
       </c>
       <c r="I126" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K126" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -5374,13 +4612,13 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E127" t="n">
         <v>32.0</v>
@@ -5391,17 +4629,11 @@
       <c r="G127" t="n">
         <v>137.0</v>
       </c>
-      <c r="H127" t="s">
-        <v>7</v>
+      <c r="H127" t="n">
+        <v>3.0</v>
       </c>
       <c r="I127" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K127" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -5409,13 +4641,13 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E128" t="n">
         <v>2.0</v>
@@ -5426,17 +4658,11 @@
       <c r="G128" t="n">
         <v>2.0</v>
       </c>
-      <c r="H128" t="s">
-        <v>7</v>
+      <c r="H128" t="n">
+        <v>5.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K128" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
@@ -5444,13 +4670,13 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" t="s">
         <v>162</v>
-      </c>
-      <c r="D129" t="s">
-        <v>164</v>
       </c>
       <c r="E129" t="n">
         <v>2.0</v>
@@ -5461,17 +4687,11 @@
       <c r="G129" t="n">
         <v>2.0</v>
       </c>
-      <c r="H129" t="s">
-        <v>7</v>
+      <c r="H129" t="n">
+        <v>5.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K129" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
@@ -5479,13 +4699,13 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E130" t="n">
         <v>1.0</v>
@@ -5496,17 +4716,11 @@
       <c r="G130" t="n">
         <v>1.0</v>
       </c>
-      <c r="H130" t="s">
-        <v>7</v>
+      <c r="H130" t="n">
+        <v>5.0</v>
       </c>
       <c r="I130" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K130" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -5514,13 +4728,13 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E131" t="n">
         <v>29.0</v>
@@ -5531,17 +4745,11 @@
       <c r="G131" t="n">
         <v>300.0</v>
       </c>
-      <c r="H131" t="s">
-        <v>7</v>
+      <c r="H131" t="n">
+        <v>5.0</v>
       </c>
       <c r="I131" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K131" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -5549,13 +4757,13 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C132" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" t="s">
         <v>167</v>
-      </c>
-      <c r="D132" t="s">
-        <v>169</v>
       </c>
       <c r="E132" t="n">
         <v>29.0</v>
@@ -5566,17 +4774,11 @@
       <c r="G132" t="n">
         <v>300.0</v>
       </c>
-      <c r="H132" t="s">
-        <v>7</v>
+      <c r="H132" t="n">
+        <v>5.0</v>
       </c>
       <c r="I132" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K132" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -5584,13 +4786,13 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C133" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E133" t="n">
         <v>29.0</v>
@@ -5601,17 +4803,11 @@
       <c r="G133" t="n">
         <v>300.0</v>
       </c>
-      <c r="H133" t="s">
-        <v>7</v>
+      <c r="H133" t="n">
+        <v>5.0</v>
       </c>
       <c r="I133" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K133" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="134">
@@ -5619,13 +4815,13 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E134" t="n">
         <v>29.0</v>
@@ -5636,17 +4832,11 @@
       <c r="G134" t="n">
         <v>300.0</v>
       </c>
-      <c r="H134" t="s">
-        <v>7</v>
+      <c r="H134" t="n">
+        <v>5.0</v>
       </c>
       <c r="I134" t="n">
         <v>5.0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K134" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -5654,13 +4844,13 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E135" t="n">
         <v>29.0</v>
@@ -5671,17 +4861,11 @@
       <c r="G135" t="n">
         <v>300.0</v>
       </c>
-      <c r="H135" t="s">
-        <v>7</v>
+      <c r="H135" t="n">
+        <v>5.0</v>
       </c>
       <c r="I135" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J135" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K135" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -5689,13 +4873,13 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E136" t="n">
         <v>29.0</v>
@@ -5706,17 +4890,11 @@
       <c r="G136" t="n">
         <v>300.0</v>
       </c>
-      <c r="H136" t="s">
-        <v>7</v>
+      <c r="H136" t="n">
+        <v>5.0</v>
       </c>
       <c r="I136" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J136" t="n">
         <v>8.0</v>
-      </c>
-      <c r="K136" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -5724,13 +4902,13 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E137" t="n">
         <v>29.0</v>
@@ -5741,17 +4919,11 @@
       <c r="G137" t="n">
         <v>300.0</v>
       </c>
-      <c r="H137" t="s">
-        <v>7</v>
+      <c r="H137" t="n">
+        <v>5.0</v>
       </c>
       <c r="I137" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K137" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
@@ -5759,13 +4931,13 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E138" t="n">
         <v>29.0</v>
@@ -5776,17 +4948,11 @@
       <c r="G138" t="n">
         <v>300.0</v>
       </c>
-      <c r="H138" t="s">
-        <v>7</v>
+      <c r="H138" t="n">
+        <v>5.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J138" t="n">
         <v>17.0</v>
-      </c>
-      <c r="K138" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -5794,13 +4960,13 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E139" t="n">
         <v>29.0</v>
@@ -5811,17 +4977,11 @@
       <c r="G139" t="n">
         <v>300.0</v>
       </c>
-      <c r="H139" t="s">
-        <v>7</v>
+      <c r="H139" t="n">
+        <v>5.0</v>
       </c>
       <c r="I139" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K139" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="140">
@@ -5829,13 +4989,13 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E140" t="n">
         <v>29.0</v>
@@ -5846,17 +5006,11 @@
       <c r="G140" t="n">
         <v>300.0</v>
       </c>
-      <c r="H140" t="s">
-        <v>7</v>
+      <c r="H140" t="n">
+        <v>5.0</v>
       </c>
       <c r="I140" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J140" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K140" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -5864,13 +5018,13 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D141" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E141" t="n">
         <v>29.0</v>
@@ -5881,17 +5035,11 @@
       <c r="G141" t="n">
         <v>300.0</v>
       </c>
-      <c r="H141" t="s">
-        <v>7</v>
+      <c r="H141" t="n">
+        <v>5.0</v>
       </c>
       <c r="I141" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J141" t="n">
         <v>10.0</v>
-      </c>
-      <c r="K141" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -5899,13 +5047,13 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E142" t="n">
         <v>29.0</v>
@@ -5916,17 +5064,11 @@
       <c r="G142" t="n">
         <v>300.0</v>
       </c>
-      <c r="H142" t="s">
-        <v>7</v>
+      <c r="H142" t="n">
+        <v>5.0</v>
       </c>
       <c r="I142" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K142" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -5934,13 +5076,13 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D143" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E143" t="n">
         <v>29.0</v>
@@ -5951,17 +5093,11 @@
       <c r="G143" t="n">
         <v>300.0</v>
       </c>
-      <c r="H143" t="s">
-        <v>7</v>
+      <c r="H143" t="n">
+        <v>5.0</v>
       </c>
       <c r="I143" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J143" t="n">
         <v>128.0</v>
-      </c>
-      <c r="K143" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -5969,13 +5105,13 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D144" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E144" t="n">
         <v>29.0</v>
@@ -5986,17 +5122,11 @@
       <c r="G144" t="n">
         <v>300.0</v>
       </c>
-      <c r="H144" t="s">
-        <v>7</v>
+      <c r="H144" t="n">
+        <v>5.0</v>
       </c>
       <c r="I144" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J144" t="n">
         <v>26.0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -6004,13 +5134,13 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E145" t="n">
         <v>29.0</v>
@@ -6021,17 +5151,11 @@
       <c r="G145" t="n">
         <v>300.0</v>
       </c>
-      <c r="H145" t="s">
-        <v>7</v>
+      <c r="H145" t="n">
+        <v>5.0</v>
       </c>
       <c r="I145" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J145" t="n">
         <v>11.0</v>
-      </c>
-      <c r="K145" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -6039,13 +5163,13 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E146" t="n">
         <v>29.0</v>
@@ -6056,17 +5180,11 @@
       <c r="G146" t="n">
         <v>300.0</v>
       </c>
-      <c r="H146" t="s">
-        <v>7</v>
+      <c r="H146" t="n">
+        <v>5.0</v>
       </c>
       <c r="I146" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J146" t="n">
         <v>12.0</v>
-      </c>
-      <c r="K146" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="147">
@@ -6074,13 +5192,13 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E147" t="n">
         <v>29.0</v>
@@ -6091,17 +5209,11 @@
       <c r="G147" t="n">
         <v>300.0</v>
       </c>
-      <c r="H147" t="s">
-        <v>7</v>
+      <c r="H147" t="n">
+        <v>5.0</v>
       </c>
       <c r="I147" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J147" t="n">
         <v>15.0</v>
-      </c>
-      <c r="K147" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -6109,13 +5221,13 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E148" t="n">
         <v>29.0</v>
@@ -6126,17 +5238,11 @@
       <c r="G148" t="n">
         <v>300.0</v>
       </c>
-      <c r="H148" t="s">
-        <v>7</v>
+      <c r="H148" t="n">
+        <v>5.0</v>
       </c>
       <c r="I148" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K148" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="149">
@@ -6144,13 +5250,13 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E149" t="n">
         <v>29.0</v>
@@ -6161,17 +5267,11 @@
       <c r="G149" t="n">
         <v>300.0</v>
       </c>
-      <c r="H149" t="s">
-        <v>7</v>
+      <c r="H149" t="n">
+        <v>5.0</v>
       </c>
       <c r="I149" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J149" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -6179,13 +5279,13 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E150" t="n">
         <v>29.0</v>
@@ -6196,17 +5296,11 @@
       <c r="G150" t="n">
         <v>300.0</v>
       </c>
-      <c r="H150" t="s">
-        <v>7</v>
+      <c r="H150" t="n">
+        <v>5.0</v>
       </c>
       <c r="I150" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J150" t="n">
         <v>17.0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -6214,13 +5308,13 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D151" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E151" t="n">
         <v>29.0</v>
@@ -6231,17 +5325,11 @@
       <c r="G151" t="n">
         <v>300.0</v>
       </c>
-      <c r="H151" t="s">
-        <v>7</v>
+      <c r="H151" t="n">
+        <v>5.0</v>
       </c>
       <c r="I151" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K151" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="152">
@@ -6249,13 +5337,13 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E152" t="n">
         <v>29.0</v>
@@ -6266,17 +5354,11 @@
       <c r="G152" t="n">
         <v>300.0</v>
       </c>
-      <c r="H152" t="s">
-        <v>7</v>
+      <c r="H152" t="n">
+        <v>5.0</v>
       </c>
       <c r="I152" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J152" t="n">
         <v>7.0</v>
-      </c>
-      <c r="K152" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -6284,13 +5366,13 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E153" t="n">
         <v>29.0</v>
@@ -6301,17 +5383,11 @@
       <c r="G153" t="n">
         <v>300.0</v>
       </c>
-      <c r="H153" t="s">
-        <v>7</v>
+      <c r="H153" t="n">
+        <v>5.0</v>
       </c>
       <c r="I153" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J153" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K153" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -6319,13 +5395,13 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E154" t="n">
         <v>29.0</v>
@@ -6336,17 +5412,11 @@
       <c r="G154" t="n">
         <v>300.0</v>
       </c>
-      <c r="H154" t="s">
-        <v>7</v>
+      <c r="H154" t="n">
+        <v>5.0</v>
       </c>
       <c r="I154" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K154" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="155">
@@ -6354,13 +5424,13 @@
         <v>154.0</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E155" t="n">
         <v>29.0</v>
@@ -6371,17 +5441,11 @@
       <c r="G155" t="n">
         <v>300.0</v>
       </c>
-      <c r="H155" t="s">
-        <v>7</v>
+      <c r="H155" t="n">
+        <v>5.0</v>
       </c>
       <c r="I155" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K155" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="156">
@@ -6389,13 +5453,13 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E156" t="n">
         <v>29.0</v>
@@ -6406,17 +5470,11 @@
       <c r="G156" t="n">
         <v>300.0</v>
       </c>
-      <c r="H156" t="s">
-        <v>7</v>
+      <c r="H156" t="n">
+        <v>5.0</v>
       </c>
       <c r="I156" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K156" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="157">
@@ -6424,13 +5482,13 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E157" t="n">
         <v>29.0</v>
@@ -6441,17 +5499,11 @@
       <c r="G157" t="n">
         <v>300.0</v>
       </c>
-      <c r="H157" t="s">
-        <v>7</v>
+      <c r="H157" t="n">
+        <v>5.0</v>
       </c>
       <c r="I157" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K157" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
@@ -6459,13 +5511,13 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E158" t="n">
         <v>29.0</v>
@@ -6476,17 +5528,11 @@
       <c r="G158" t="n">
         <v>300.0</v>
       </c>
-      <c r="H158" t="s">
-        <v>7</v>
+      <c r="H158" t="n">
+        <v>5.0</v>
       </c>
       <c r="I158" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K158" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
@@ -6494,13 +5540,13 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E159" t="n">
         <v>29.0</v>
@@ -6511,17 +5557,11 @@
       <c r="G159" t="n">
         <v>300.0</v>
       </c>
-      <c r="H159" t="s">
-        <v>7</v>
+      <c r="H159" t="n">
+        <v>5.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K159" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
@@ -6529,13 +5569,13 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="s">
+        <v>193</v>
+      </c>
+      <c r="C160" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" t="s">
         <v>195</v>
-      </c>
-      <c r="C160" t="s">
-        <v>196</v>
-      </c>
-      <c r="D160" t="s">
-        <v>197</v>
       </c>
       <c r="E160" t="n">
         <v>21.0</v>
@@ -6546,17 +5586,11 @@
       <c r="G160" t="n">
         <v>91.0</v>
       </c>
-      <c r="H160" t="s">
-        <v>7</v>
+      <c r="H160" t="n">
+        <v>45.0</v>
       </c>
       <c r="I160" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K160" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
@@ -6564,13 +5598,13 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C161" t="s">
+        <v>194</v>
+      </c>
+      <c r="D161" t="s">
         <v>196</v>
-      </c>
-      <c r="D161" t="s">
-        <v>198</v>
       </c>
       <c r="E161" t="n">
         <v>21.0</v>
@@ -6581,17 +5615,11 @@
       <c r="G161" t="n">
         <v>91.0</v>
       </c>
-      <c r="H161" t="s">
-        <v>7</v>
+      <c r="H161" t="n">
+        <v>45.0</v>
       </c>
       <c r="I161" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
@@ -6599,13 +5627,13 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E162" t="n">
         <v>21.0</v>
@@ -6616,17 +5644,11 @@
       <c r="G162" t="n">
         <v>91.0</v>
       </c>
-      <c r="H162" t="s">
-        <v>7</v>
+      <c r="H162" t="n">
+        <v>45.0</v>
       </c>
       <c r="I162" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K162" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
@@ -6634,13 +5656,13 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E163" t="n">
         <v>21.0</v>
@@ -6651,17 +5673,11 @@
       <c r="G163" t="n">
         <v>91.0</v>
       </c>
-      <c r="H163" t="s">
-        <v>7</v>
+      <c r="H163" t="n">
+        <v>45.0</v>
       </c>
       <c r="I163" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K163" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -6669,13 +5685,13 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D164" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E164" t="n">
         <v>21.0</v>
@@ -6686,17 +5702,11 @@
       <c r="G164" t="n">
         <v>91.0</v>
       </c>
-      <c r="H164" t="s">
-        <v>7</v>
+      <c r="H164" t="n">
+        <v>45.0</v>
       </c>
       <c r="I164" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J164" t="n">
         <v>14.0</v>
-      </c>
-      <c r="K164" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -6704,13 +5714,13 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D165" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E165" t="n">
         <v>21.0</v>
@@ -6721,17 +5731,11 @@
       <c r="G165" t="n">
         <v>91.0</v>
       </c>
-      <c r="H165" t="s">
-        <v>7</v>
+      <c r="H165" t="n">
+        <v>45.0</v>
       </c>
       <c r="I165" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K165" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="166">
@@ -6739,13 +5743,13 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D166" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E166" t="n">
         <v>21.0</v>
@@ -6756,17 +5760,11 @@
       <c r="G166" t="n">
         <v>91.0</v>
       </c>
-      <c r="H166" t="s">
-        <v>7</v>
+      <c r="H166" t="n">
+        <v>45.0</v>
       </c>
       <c r="I166" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K166" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -6774,13 +5772,13 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D167" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E167" t="n">
         <v>21.0</v>
@@ -6791,17 +5789,11 @@
       <c r="G167" t="n">
         <v>91.0</v>
       </c>
-      <c r="H167" t="s">
-        <v>7</v>
+      <c r="H167" t="n">
+        <v>45.0</v>
       </c>
       <c r="I167" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K167" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
@@ -6809,13 +5801,13 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D168" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E168" t="n">
         <v>21.0</v>
@@ -6826,17 +5818,11 @@
       <c r="G168" t="n">
         <v>91.0</v>
       </c>
-      <c r="H168" t="s">
-        <v>7</v>
+      <c r="H168" t="n">
+        <v>45.0</v>
       </c>
       <c r="I168" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K168" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="169">
@@ -6844,13 +5830,13 @@
         <v>168.0</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E169" t="n">
         <v>21.0</v>
@@ -6861,17 +5847,11 @@
       <c r="G169" t="n">
         <v>91.0</v>
       </c>
-      <c r="H169" t="s">
-        <v>7</v>
+      <c r="H169" t="n">
+        <v>45.0</v>
       </c>
       <c r="I169" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K169" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="170">
@@ -6879,13 +5859,13 @@
         <v>169.0</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E170" t="n">
         <v>21.0</v>
@@ -6896,17 +5876,11 @@
       <c r="G170" t="n">
         <v>91.0</v>
       </c>
-      <c r="H170" t="s">
-        <v>7</v>
+      <c r="H170" t="n">
+        <v>45.0</v>
       </c>
       <c r="I170" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K170" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="171">
@@ -6914,13 +5888,13 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C171" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D171" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E171" t="n">
         <v>21.0</v>
@@ -6931,17 +5905,11 @@
       <c r="G171" t="n">
         <v>91.0</v>
       </c>
-      <c r="H171" t="s">
-        <v>7</v>
+      <c r="H171" t="n">
+        <v>45.0</v>
       </c>
       <c r="I171" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="172">
@@ -6949,13 +5917,13 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E172" t="n">
         <v>21.0</v>
@@ -6966,17 +5934,11 @@
       <c r="G172" t="n">
         <v>91.0</v>
       </c>
-      <c r="H172" t="s">
-        <v>7</v>
+      <c r="H172" t="n">
+        <v>45.0</v>
       </c>
       <c r="I172" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K172" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="173">
@@ -6984,13 +5946,13 @@
         <v>172.0</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D173" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E173" t="n">
         <v>21.0</v>
@@ -7001,17 +5963,11 @@
       <c r="G173" t="n">
         <v>91.0</v>
       </c>
-      <c r="H173" t="s">
-        <v>7</v>
+      <c r="H173" t="n">
+        <v>45.0</v>
       </c>
       <c r="I173" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="174">
@@ -7019,13 +5975,13 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C174" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D174" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E174" t="n">
         <v>21.0</v>
@@ -7036,17 +5992,11 @@
       <c r="G174" t="n">
         <v>91.0</v>
       </c>
-      <c r="H174" t="s">
-        <v>7</v>
+      <c r="H174" t="n">
+        <v>45.0</v>
       </c>
       <c r="I174" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J174" t="n">
         <v>26.0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="175">
@@ -7054,13 +6004,13 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D175" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E175" t="n">
         <v>21.0</v>
@@ -7071,17 +6021,11 @@
       <c r="G175" t="n">
         <v>91.0</v>
       </c>
-      <c r="H175" t="s">
-        <v>7</v>
+      <c r="H175" t="n">
+        <v>45.0</v>
       </c>
       <c r="I175" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K175" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -7089,13 +6033,13 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D176" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E176" t="n">
         <v>21.0</v>
@@ -7106,17 +6050,11 @@
       <c r="G176" t="n">
         <v>91.0</v>
       </c>
-      <c r="H176" t="s">
-        <v>7</v>
+      <c r="H176" t="n">
+        <v>45.0</v>
       </c>
       <c r="I176" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K176" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="177">
@@ -7124,13 +6062,13 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D177" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E177" t="n">
         <v>21.0</v>
@@ -7141,17 +6079,11 @@
       <c r="G177" t="n">
         <v>91.0</v>
       </c>
-      <c r="H177" t="s">
-        <v>7</v>
+      <c r="H177" t="n">
+        <v>45.0</v>
       </c>
       <c r="I177" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
@@ -7159,13 +6091,13 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E178" t="n">
         <v>21.0</v>
@@ -7176,17 +6108,11 @@
       <c r="G178" t="n">
         <v>91.0</v>
       </c>
-      <c r="H178" t="s">
-        <v>7</v>
+      <c r="H178" t="n">
+        <v>45.0</v>
       </c>
       <c r="I178" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K178" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="179">
@@ -7194,13 +6120,13 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C179" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D179" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E179" t="n">
         <v>21.0</v>
@@ -7211,17 +6137,11 @@
       <c r="G179" t="n">
         <v>91.0</v>
       </c>
-      <c r="H179" t="s">
-        <v>7</v>
+      <c r="H179" t="n">
+        <v>45.0</v>
       </c>
       <c r="I179" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J179" t="n">
         <v>21.0</v>
-      </c>
-      <c r="K179" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -7229,13 +6149,13 @@
         <v>179.0</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C180" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D180" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E180" t="n">
         <v>21.0</v>
@@ -7246,17 +6166,11 @@
       <c r="G180" t="n">
         <v>91.0</v>
       </c>
-      <c r="H180" t="s">
-        <v>7</v>
+      <c r="H180" t="n">
+        <v>45.0</v>
       </c>
       <c r="I180" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K180" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181">
@@ -7264,13 +6178,13 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E181" t="n">
         <v>31.0</v>
@@ -7281,17 +6195,11 @@
       <c r="G181" t="n">
         <v>210.0</v>
       </c>
-      <c r="H181" t="s">
-        <v>7</v>
+      <c r="H181" t="n">
+        <v>3.0</v>
       </c>
       <c r="I181" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="182">
@@ -7299,13 +6207,13 @@
         <v>181.0</v>
       </c>
       <c r="B182" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C182" t="s">
+        <v>216</v>
+      </c>
+      <c r="D182" t="s">
         <v>218</v>
-      </c>
-      <c r="D182" t="s">
-        <v>220</v>
       </c>
       <c r="E182" t="n">
         <v>31.0</v>
@@ -7316,17 +6224,11 @@
       <c r="G182" t="n">
         <v>210.0</v>
       </c>
-      <c r="H182" t="s">
-        <v>7</v>
+      <c r="H182" t="n">
+        <v>3.0</v>
       </c>
       <c r="I182" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K182" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="183">
@@ -7334,13 +6236,13 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C183" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D183" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E183" t="n">
         <v>31.0</v>
@@ -7351,17 +6253,11 @@
       <c r="G183" t="n">
         <v>210.0</v>
       </c>
-      <c r="H183" t="s">
-        <v>7</v>
+      <c r="H183" t="n">
+        <v>3.0</v>
       </c>
       <c r="I183" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K183" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
@@ -7369,13 +6265,13 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E184" t="n">
         <v>31.0</v>
@@ -7386,17 +6282,11 @@
       <c r="G184" t="n">
         <v>210.0</v>
       </c>
-      <c r="H184" t="s">
-        <v>7</v>
+      <c r="H184" t="n">
+        <v>3.0</v>
       </c>
       <c r="I184" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
@@ -7404,13 +6294,13 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C185" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E185" t="n">
         <v>31.0</v>
@@ -7421,17 +6311,11 @@
       <c r="G185" t="n">
         <v>210.0</v>
       </c>
-      <c r="H185" t="s">
-        <v>7</v>
+      <c r="H185" t="n">
+        <v>3.0</v>
       </c>
       <c r="I185" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -7439,13 +6323,13 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D186" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E186" t="n">
         <v>31.0</v>
@@ -7456,17 +6340,11 @@
       <c r="G186" t="n">
         <v>210.0</v>
       </c>
-      <c r="H186" t="s">
-        <v>7</v>
+      <c r="H186" t="n">
+        <v>3.0</v>
       </c>
       <c r="I186" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K186" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187">
@@ -7474,13 +6352,13 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C187" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D187" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E187" t="n">
         <v>31.0</v>
@@ -7491,17 +6369,11 @@
       <c r="G187" t="n">
         <v>210.0</v>
       </c>
-      <c r="H187" t="s">
-        <v>7</v>
+      <c r="H187" t="n">
+        <v>3.0</v>
       </c>
       <c r="I187" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K187" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -7509,13 +6381,13 @@
         <v>187.0</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D188" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E188" t="n">
         <v>31.0</v>
@@ -7526,17 +6398,11 @@
       <c r="G188" t="n">
         <v>210.0</v>
       </c>
-      <c r="H188" t="s">
-        <v>7</v>
+      <c r="H188" t="n">
+        <v>3.0</v>
       </c>
       <c r="I188" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K188" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -7544,13 +6410,13 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D189" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E189" t="n">
         <v>31.0</v>
@@ -7561,17 +6427,11 @@
       <c r="G189" t="n">
         <v>210.0</v>
       </c>
-      <c r="H189" t="s">
-        <v>7</v>
+      <c r="H189" t="n">
+        <v>3.0</v>
       </c>
       <c r="I189" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J189" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K189" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -7579,13 +6439,13 @@
         <v>189.0</v>
       </c>
       <c r="B190" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E190" t="n">
         <v>31.0</v>
@@ -7596,17 +6456,11 @@
       <c r="G190" t="n">
         <v>210.0</v>
       </c>
-      <c r="H190" t="s">
-        <v>7</v>
+      <c r="H190" t="n">
+        <v>3.0</v>
       </c>
       <c r="I190" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K190" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -7614,13 +6468,13 @@
         <v>190.0</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E191" t="n">
         <v>31.0</v>
@@ -7631,17 +6485,11 @@
       <c r="G191" t="n">
         <v>210.0</v>
       </c>
-      <c r="H191" t="s">
-        <v>7</v>
+      <c r="H191" t="n">
+        <v>3.0</v>
       </c>
       <c r="I191" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J191" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K191" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -7649,13 +6497,13 @@
         <v>191.0</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D192" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E192" t="n">
         <v>31.0</v>
@@ -7666,17 +6514,11 @@
       <c r="G192" t="n">
         <v>210.0</v>
       </c>
-      <c r="H192" t="s">
-        <v>7</v>
+      <c r="H192" t="n">
+        <v>3.0</v>
       </c>
       <c r="I192" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J192" t="n">
         <v>74.0</v>
-      </c>
-      <c r="K192" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -7684,13 +6526,13 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D193" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E193" t="n">
         <v>31.0</v>
@@ -7701,17 +6543,11 @@
       <c r="G193" t="n">
         <v>210.0</v>
       </c>
-      <c r="H193" t="s">
-        <v>7</v>
+      <c r="H193" t="n">
+        <v>3.0</v>
       </c>
       <c r="I193" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J193" t="n">
         <v>13.0</v>
-      </c>
-      <c r="K193" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -7719,13 +6555,13 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D194" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E194" t="n">
         <v>31.0</v>
@@ -7736,17 +6572,11 @@
       <c r="G194" t="n">
         <v>210.0</v>
       </c>
-      <c r="H194" t="s">
-        <v>7</v>
+      <c r="H194" t="n">
+        <v>3.0</v>
       </c>
       <c r="I194" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K194" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="195">
@@ -7754,13 +6584,13 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D195" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E195" t="n">
         <v>31.0</v>
@@ -7771,17 +6601,11 @@
       <c r="G195" t="n">
         <v>210.0</v>
       </c>
-      <c r="H195" t="s">
-        <v>7</v>
+      <c r="H195" t="n">
+        <v>3.0</v>
       </c>
       <c r="I195" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K195" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
@@ -7789,13 +6613,13 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D196" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E196" t="n">
         <v>31.0</v>
@@ -7806,17 +6630,11 @@
       <c r="G196" t="n">
         <v>210.0</v>
       </c>
-      <c r="H196" t="s">
-        <v>7</v>
+      <c r="H196" t="n">
+        <v>3.0</v>
       </c>
       <c r="I196" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
@@ -7824,13 +6642,13 @@
         <v>196.0</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D197" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E197" t="n">
         <v>31.0</v>
@@ -7841,17 +6659,11 @@
       <c r="G197" t="n">
         <v>210.0</v>
       </c>
-      <c r="H197" t="s">
-        <v>7</v>
+      <c r="H197" t="n">
+        <v>3.0</v>
       </c>
       <c r="I197" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K197" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="198">
@@ -7859,13 +6671,13 @@
         <v>197.0</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C198" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D198" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E198" t="n">
         <v>31.0</v>
@@ -7876,17 +6688,11 @@
       <c r="G198" t="n">
         <v>210.0</v>
       </c>
-      <c r="H198" t="s">
-        <v>7</v>
+      <c r="H198" t="n">
+        <v>3.0</v>
       </c>
       <c r="I198" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J198" t="n">
         <v>13.0</v>
-      </c>
-      <c r="K198" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -7894,13 +6700,13 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C199" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E199" t="n">
         <v>31.0</v>
@@ -7911,17 +6717,11 @@
       <c r="G199" t="n">
         <v>210.0</v>
       </c>
-      <c r="H199" t="s">
-        <v>7</v>
+      <c r="H199" t="n">
+        <v>3.0</v>
       </c>
       <c r="I199" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K199" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="200">
@@ -7929,13 +6729,13 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D200" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E200" t="n">
         <v>31.0</v>
@@ -7946,17 +6746,11 @@
       <c r="G200" t="n">
         <v>210.0</v>
       </c>
-      <c r="H200" t="s">
-        <v>7</v>
+      <c r="H200" t="n">
+        <v>3.0</v>
       </c>
       <c r="I200" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K200" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
@@ -7964,13 +6758,13 @@
         <v>200.0</v>
       </c>
       <c r="B201" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D201" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E201" t="n">
         <v>31.0</v>
@@ -7981,17 +6775,11 @@
       <c r="G201" t="n">
         <v>210.0</v>
       </c>
-      <c r="H201" t="s">
-        <v>7</v>
+      <c r="H201" t="n">
+        <v>3.0</v>
       </c>
       <c r="I201" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K201" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="202">
@@ -7999,13 +6787,13 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D202" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E202" t="n">
         <v>31.0</v>
@@ -8016,17 +6804,11 @@
       <c r="G202" t="n">
         <v>210.0</v>
       </c>
-      <c r="H202" t="s">
-        <v>7</v>
+      <c r="H202" t="n">
+        <v>3.0</v>
       </c>
       <c r="I202" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K202" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="203">
@@ -8034,13 +6816,13 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C203" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D203" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E203" t="n">
         <v>31.0</v>
@@ -8051,17 +6833,11 @@
       <c r="G203" t="n">
         <v>210.0</v>
       </c>
-      <c r="H203" t="s">
-        <v>7</v>
+      <c r="H203" t="n">
+        <v>3.0</v>
       </c>
       <c r="I203" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K203" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
@@ -8069,13 +6845,13 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D204" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E204" t="n">
         <v>31.0</v>
@@ -8086,17 +6862,11 @@
       <c r="G204" t="n">
         <v>210.0</v>
       </c>
-      <c r="H204" t="s">
-        <v>7</v>
+      <c r="H204" t="n">
+        <v>3.0</v>
       </c>
       <c r="I204" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K204" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -8104,13 +6874,13 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D205" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E205" t="n">
         <v>31.0</v>
@@ -8121,17 +6891,11 @@
       <c r="G205" t="n">
         <v>210.0</v>
       </c>
-      <c r="H205" t="s">
-        <v>7</v>
+      <c r="H205" t="n">
+        <v>3.0</v>
       </c>
       <c r="I205" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K205" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
@@ -8139,13 +6903,13 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E206" t="n">
         <v>31.0</v>
@@ -8156,17 +6920,11 @@
       <c r="G206" t="n">
         <v>210.0</v>
       </c>
-      <c r="H206" t="s">
-        <v>7</v>
+      <c r="H206" t="n">
+        <v>3.0</v>
       </c>
       <c r="I206" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J206" t="n">
         <v>11.0</v>
-      </c>
-      <c r="K206" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -8174,13 +6932,13 @@
         <v>206.0</v>
       </c>
       <c r="B207" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D207" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E207" t="n">
         <v>31.0</v>
@@ -8191,17 +6949,11 @@
       <c r="G207" t="n">
         <v>210.0</v>
       </c>
-      <c r="H207" t="s">
-        <v>7</v>
+      <c r="H207" t="n">
+        <v>3.0</v>
       </c>
       <c r="I207" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J207" t="n">
         <v>7.0</v>
-      </c>
-      <c r="K207" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -8209,13 +6961,13 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D208" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E208" t="n">
         <v>31.0</v>
@@ -8226,17 +6978,11 @@
       <c r="G208" t="n">
         <v>210.0</v>
       </c>
-      <c r="H208" t="s">
-        <v>7</v>
+      <c r="H208" t="n">
+        <v>3.0</v>
       </c>
       <c r="I208" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J208" t="n">
         <v>10.0</v>
-      </c>
-      <c r="K208" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="209">
@@ -8244,13 +6990,13 @@
         <v>208.0</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C209" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E209" t="n">
         <v>31.0</v>
@@ -8261,17 +7007,11 @@
       <c r="G209" t="n">
         <v>210.0</v>
       </c>
-      <c r="H209" t="s">
-        <v>7</v>
+      <c r="H209" t="n">
+        <v>3.0</v>
       </c>
       <c r="I209" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J209" t="n">
         <v>42.0</v>
-      </c>
-      <c r="K209" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="210">
@@ -8279,13 +7019,13 @@
         <v>209.0</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C210" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D210" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E210" t="n">
         <v>31.0</v>
@@ -8296,17 +7036,11 @@
       <c r="G210" t="n">
         <v>210.0</v>
       </c>
-      <c r="H210" t="s">
-        <v>7</v>
+      <c r="H210" t="n">
+        <v>3.0</v>
       </c>
       <c r="I210" t="n">
         <v>3.0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K210" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -8314,13 +7048,13 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C211" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D211" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E211" t="n">
         <v>31.0</v>
@@ -8331,17 +7065,11 @@
       <c r="G211" t="n">
         <v>210.0</v>
       </c>
-      <c r="H211" t="s">
-        <v>7</v>
+      <c r="H211" t="n">
+        <v>3.0</v>
       </c>
       <c r="I211" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K211" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212">
@@ -8349,13 +7077,13 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C212" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D212" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E212" t="n">
         <v>2.0</v>
@@ -8366,17 +7094,11 @@
       <c r="G212" t="n">
         <v>2.0</v>
       </c>
-      <c r="H212" t="s">
-        <v>7</v>
+      <c r="H212" t="n">
+        <v>6.0</v>
       </c>
       <c r="I212" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K212" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
@@ -8384,13 +7106,13 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C213" t="s">
+        <v>248</v>
+      </c>
+      <c r="D213" t="s">
         <v>250</v>
-      </c>
-      <c r="D213" t="s">
-        <v>252</v>
       </c>
       <c r="E213" t="n">
         <v>2.0</v>
@@ -8401,17 +7123,11 @@
       <c r="G213" t="n">
         <v>2.0</v>
       </c>
-      <c r="H213" t="s">
-        <v>7</v>
+      <c r="H213" t="n">
+        <v>6.0</v>
       </c>
       <c r="I213" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K213" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
@@ -8419,13 +7135,13 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="s">
+        <v>251</v>
+      </c>
+      <c r="C214" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" t="s">
         <v>253</v>
-      </c>
-      <c r="C214" t="s">
-        <v>254</v>
-      </c>
-      <c r="D214" t="s">
-        <v>255</v>
       </c>
       <c r="E214" t="n">
         <v>3.0</v>
@@ -8436,17 +7152,11 @@
       <c r="G214" t="n">
         <v>4.0</v>
       </c>
-      <c r="H214" t="s">
-        <v>7</v>
+      <c r="H214" t="n">
+        <v>5.0</v>
       </c>
       <c r="I214" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K214" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
@@ -8454,13 +7164,13 @@
         <v>214.0</v>
       </c>
       <c r="B215" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s">
+        <v>252</v>
+      </c>
+      <c r="D215" t="s">
         <v>254</v>
-      </c>
-      <c r="D215" t="s">
-        <v>256</v>
       </c>
       <c r="E215" t="n">
         <v>3.0</v>
@@ -8471,17 +7181,11 @@
       <c r="G215" t="n">
         <v>4.0</v>
       </c>
-      <c r="H215" t="s">
-        <v>7</v>
+      <c r="H215" t="n">
+        <v>5.0</v>
       </c>
       <c r="I215" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K215" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="216">
@@ -8489,13 +7193,13 @@
         <v>215.0</v>
       </c>
       <c r="B216" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C216" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D216" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E216" t="n">
         <v>3.0</v>
@@ -8506,17 +7210,11 @@
       <c r="G216" t="n">
         <v>4.0</v>
       </c>
-      <c r="H216" t="s">
-        <v>7</v>
+      <c r="H216" t="n">
+        <v>5.0</v>
       </c>
       <c r="I216" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K216" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="217">
@@ -8524,13 +7222,13 @@
         <v>216.0</v>
       </c>
       <c r="B217" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C217" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D217" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E217" t="n">
         <v>2.0</v>
@@ -8541,17 +7239,11 @@
       <c r="G217" t="n">
         <v>5.0</v>
       </c>
-      <c r="H217" t="s">
-        <v>7</v>
+      <c r="H217" t="n">
+        <v>3.0</v>
       </c>
       <c r="I217" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K217" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218">
@@ -8559,13 +7251,13 @@
         <v>217.0</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C218" t="s">
+        <v>256</v>
+      </c>
+      <c r="D218" t="s">
         <v>258</v>
-      </c>
-      <c r="D218" t="s">
-        <v>260</v>
       </c>
       <c r="E218" t="n">
         <v>2.0</v>
@@ -8576,17 +7268,11 @@
       <c r="G218" t="n">
         <v>5.0</v>
       </c>
-      <c r="H218" t="s">
-        <v>7</v>
+      <c r="H218" t="n">
+        <v>3.0</v>
       </c>
       <c r="I218" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K218" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
@@ -8594,13 +7280,13 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C219" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D219" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E219" t="n">
         <v>5.0</v>
@@ -8611,17 +7297,11 @@
       <c r="G219" t="n">
         <v>44.0</v>
       </c>
-      <c r="H219" t="s">
-        <v>7</v>
+      <c r="H219" t="n">
+        <v>17.0</v>
       </c>
       <c r="I219" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K219" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
@@ -8629,13 +7309,13 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C220" t="s">
+        <v>259</v>
+      </c>
+      <c r="D220" t="s">
         <v>261</v>
-      </c>
-      <c r="D220" t="s">
-        <v>263</v>
       </c>
       <c r="E220" t="n">
         <v>5.0</v>
@@ -8646,17 +7326,11 @@
       <c r="G220" t="n">
         <v>44.0</v>
       </c>
-      <c r="H220" t="s">
-        <v>7</v>
+      <c r="H220" t="n">
+        <v>17.0</v>
       </c>
       <c r="I220" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J220" t="n">
         <v>33.0</v>
-      </c>
-      <c r="K220" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -8664,13 +7338,13 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C221" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D221" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E221" t="n">
         <v>5.0</v>
@@ -8681,17 +7355,11 @@
       <c r="G221" t="n">
         <v>44.0</v>
       </c>
-      <c r="H221" t="s">
-        <v>7</v>
+      <c r="H221" t="n">
+        <v>17.0</v>
       </c>
       <c r="I221" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J221" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K221" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -8699,13 +7367,13 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C222" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D222" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E222" t="n">
         <v>5.0</v>
@@ -8716,17 +7384,11 @@
       <c r="G222" t="n">
         <v>44.0</v>
       </c>
-      <c r="H222" t="s">
-        <v>7</v>
+      <c r="H222" t="n">
+        <v>17.0</v>
       </c>
       <c r="I222" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K222" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="223">
@@ -8734,13 +7396,13 @@
         <v>222.0</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C223" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D223" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E223" t="n">
         <v>5.0</v>
@@ -8751,17 +7413,11 @@
       <c r="G223" t="n">
         <v>44.0</v>
       </c>
-      <c r="H223" t="s">
-        <v>7</v>
+      <c r="H223" t="n">
+        <v>17.0</v>
       </c>
       <c r="I223" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K223" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="224">
@@ -8769,13 +7425,13 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C224" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D224" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E224" t="n">
         <v>24.0</v>
@@ -8786,17 +7442,11 @@
       <c r="G224" t="n">
         <v>249.0</v>
       </c>
-      <c r="H224" t="s">
-        <v>7</v>
+      <c r="H224" t="n">
+        <v>15.0</v>
       </c>
       <c r="I224" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J224" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K224" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="225">
@@ -8804,13 +7454,13 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C225" t="s">
+        <v>264</v>
+      </c>
+      <c r="D225" t="s">
         <v>266</v>
-      </c>
-      <c r="D225" t="s">
-        <v>268</v>
       </c>
       <c r="E225" t="n">
         <v>24.0</v>
@@ -8821,17 +7471,11 @@
       <c r="G225" t="n">
         <v>249.0</v>
       </c>
-      <c r="H225" t="s">
-        <v>7</v>
+      <c r="H225" t="n">
+        <v>15.0</v>
       </c>
       <c r="I225" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J225" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K225" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -8839,13 +7483,13 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C226" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D226" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E226" t="n">
         <v>24.0</v>
@@ -8856,17 +7500,11 @@
       <c r="G226" t="n">
         <v>249.0</v>
       </c>
-      <c r="H226" t="s">
-        <v>7</v>
+      <c r="H226" t="n">
+        <v>15.0</v>
       </c>
       <c r="I226" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J226" t="n">
         <v>8.0</v>
-      </c>
-      <c r="K226" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="227">
@@ -8874,13 +7512,13 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C227" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D227" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E227" t="n">
         <v>24.0</v>
@@ -8891,17 +7529,11 @@
       <c r="G227" t="n">
         <v>249.0</v>
       </c>
-      <c r="H227" t="s">
-        <v>7</v>
+      <c r="H227" t="n">
+        <v>15.0</v>
       </c>
       <c r="I227" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J227" t="n">
         <v>10.0</v>
-      </c>
-      <c r="K227" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -8909,13 +7541,13 @@
         <v>227.0</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C228" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D228" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E228" t="n">
         <v>24.0</v>
@@ -8926,17 +7558,11 @@
       <c r="G228" t="n">
         <v>249.0</v>
       </c>
-      <c r="H228" t="s">
-        <v>7</v>
+      <c r="H228" t="n">
+        <v>15.0</v>
       </c>
       <c r="I228" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J228" t="n">
         <v>10.0</v>
-      </c>
-      <c r="K228" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="229">
@@ -8944,13 +7570,13 @@
         <v>228.0</v>
       </c>
       <c r="B229" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D229" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E229" t="n">
         <v>24.0</v>
@@ -8961,17 +7587,11 @@
       <c r="G229" t="n">
         <v>249.0</v>
       </c>
-      <c r="H229" t="s">
-        <v>7</v>
+      <c r="H229" t="n">
+        <v>15.0</v>
       </c>
       <c r="I229" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J229" t="n">
         <v>8.0</v>
-      </c>
-      <c r="K229" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -8979,13 +7599,13 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C230" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D230" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E230" t="n">
         <v>24.0</v>
@@ -8996,17 +7616,11 @@
       <c r="G230" t="n">
         <v>249.0</v>
       </c>
-      <c r="H230" t="s">
-        <v>7</v>
+      <c r="H230" t="n">
+        <v>15.0</v>
       </c>
       <c r="I230" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K230" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="231">
@@ -9014,13 +7628,13 @@
         <v>230.0</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C231" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D231" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E231" t="n">
         <v>24.0</v>
@@ -9031,17 +7645,11 @@
       <c r="G231" t="n">
         <v>249.0</v>
       </c>
-      <c r="H231" t="s">
-        <v>7</v>
+      <c r="H231" t="n">
+        <v>15.0</v>
       </c>
       <c r="I231" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J231" t="n">
         <v>17.0</v>
-      </c>
-      <c r="K231" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="232">
@@ -9049,13 +7657,13 @@
         <v>231.0</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C232" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D232" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E232" t="n">
         <v>24.0</v>
@@ -9066,17 +7674,11 @@
       <c r="G232" t="n">
         <v>249.0</v>
       </c>
-      <c r="H232" t="s">
-        <v>7</v>
+      <c r="H232" t="n">
+        <v>15.0</v>
       </c>
       <c r="I232" t="n">
         <v>15.0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K232" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -9084,13 +7686,13 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C233" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D233" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E233" t="n">
         <v>24.0</v>
@@ -9101,17 +7703,11 @@
       <c r="G233" t="n">
         <v>249.0</v>
       </c>
-      <c r="H233" t="s">
-        <v>7</v>
+      <c r="H233" t="n">
+        <v>15.0</v>
       </c>
       <c r="I233" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J233" t="n">
         <v>14.0</v>
-      </c>
-      <c r="K233" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="234">
@@ -9119,13 +7715,13 @@
         <v>233.0</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C234" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E234" t="n">
         <v>24.0</v>
@@ -9136,17 +7732,11 @@
       <c r="G234" t="n">
         <v>249.0</v>
       </c>
-      <c r="H234" t="s">
-        <v>7</v>
+      <c r="H234" t="n">
+        <v>15.0</v>
       </c>
       <c r="I234" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J234" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K234" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -9154,13 +7744,13 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D235" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E235" t="n">
         <v>24.0</v>
@@ -9171,17 +7761,11 @@
       <c r="G235" t="n">
         <v>249.0</v>
       </c>
-      <c r="H235" t="s">
-        <v>7</v>
+      <c r="H235" t="n">
+        <v>15.0</v>
       </c>
       <c r="I235" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K235" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="236">
@@ -9189,13 +7773,13 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C236" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D236" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E236" t="n">
         <v>24.0</v>
@@ -9206,17 +7790,11 @@
       <c r="G236" t="n">
         <v>249.0</v>
       </c>
-      <c r="H236" t="s">
-        <v>7</v>
+      <c r="H236" t="n">
+        <v>15.0</v>
       </c>
       <c r="I236" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K236" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="237">
@@ -9224,13 +7802,13 @@
         <v>236.0</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C237" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D237" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E237" t="n">
         <v>24.0</v>
@@ -9241,17 +7819,11 @@
       <c r="G237" t="n">
         <v>249.0</v>
       </c>
-      <c r="H237" t="s">
-        <v>7</v>
+      <c r="H237" t="n">
+        <v>15.0</v>
       </c>
       <c r="I237" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K237" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="238">
@@ -9259,13 +7831,13 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C238" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D238" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E238" t="n">
         <v>24.0</v>
@@ -9276,17 +7848,11 @@
       <c r="G238" t="n">
         <v>249.0</v>
       </c>
-      <c r="H238" t="s">
-        <v>7</v>
+      <c r="H238" t="n">
+        <v>15.0</v>
       </c>
       <c r="I238" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J238" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K238" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="239">
@@ -9294,13 +7860,13 @@
         <v>238.0</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C239" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D239" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E239" t="n">
         <v>24.0</v>
@@ -9311,17 +7877,11 @@
       <c r="G239" t="n">
         <v>249.0</v>
       </c>
-      <c r="H239" t="s">
-        <v>7</v>
+      <c r="H239" t="n">
+        <v>15.0</v>
       </c>
       <c r="I239" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K239" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="240">
@@ -9329,13 +7889,13 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C240" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D240" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E240" t="n">
         <v>24.0</v>
@@ -9346,17 +7906,11 @@
       <c r="G240" t="n">
         <v>249.0</v>
       </c>
-      <c r="H240" t="s">
-        <v>7</v>
+      <c r="H240" t="n">
+        <v>15.0</v>
       </c>
       <c r="I240" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K240" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="241">
@@ -9364,13 +7918,13 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C241" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D241" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E241" t="n">
         <v>24.0</v>
@@ -9381,17 +7935,11 @@
       <c r="G241" t="n">
         <v>249.0</v>
       </c>
-      <c r="H241" t="s">
-        <v>7</v>
+      <c r="H241" t="n">
+        <v>15.0</v>
       </c>
       <c r="I241" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J241" t="n">
         <v>103.0</v>
-      </c>
-      <c r="K241" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -9399,13 +7947,13 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C242" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D242" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E242" t="n">
         <v>24.0</v>
@@ -9416,17 +7964,11 @@
       <c r="G242" t="n">
         <v>249.0</v>
       </c>
-      <c r="H242" t="s">
-        <v>7</v>
+      <c r="H242" t="n">
+        <v>15.0</v>
       </c>
       <c r="I242" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K242" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="243">
@@ -9434,13 +7976,13 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C243" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D243" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E243" t="n">
         <v>24.0</v>
@@ -9451,17 +7993,11 @@
       <c r="G243" t="n">
         <v>249.0</v>
       </c>
-      <c r="H243" t="s">
-        <v>7</v>
+      <c r="H243" t="n">
+        <v>15.0</v>
       </c>
       <c r="I243" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J243" t="n">
         <v>12.0</v>
-      </c>
-      <c r="K243" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="244">
@@ -9469,13 +8005,13 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D244" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E244" t="n">
         <v>24.0</v>
@@ -9486,17 +8022,11 @@
       <c r="G244" t="n">
         <v>249.0</v>
       </c>
-      <c r="H244" t="s">
-        <v>7</v>
+      <c r="H244" t="n">
+        <v>15.0</v>
       </c>
       <c r="I244" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K244" t="s">
-        <v>10</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="245">
@@ -9504,13 +8034,13 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C245" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D245" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E245" t="n">
         <v>24.0</v>
@@ -9521,17 +8051,11 @@
       <c r="G245" t="n">
         <v>249.0</v>
       </c>
-      <c r="H245" t="s">
-        <v>7</v>
+      <c r="H245" t="n">
+        <v>15.0</v>
       </c>
       <c r="I245" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J245" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K245" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -9539,13 +8063,13 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D246" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E246" t="n">
         <v>24.0</v>
@@ -9556,17 +8080,11 @@
       <c r="G246" t="n">
         <v>249.0</v>
       </c>
-      <c r="H246" t="s">
-        <v>7</v>
+      <c r="H246" t="n">
+        <v>15.0</v>
       </c>
       <c r="I246" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J246" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K246" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -9574,13 +8092,13 @@
         <v>246.0</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D247" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E247" t="n">
         <v>24.0</v>
@@ -9591,17 +8109,11 @@
       <c r="G247" t="n">
         <v>249.0</v>
       </c>
-      <c r="H247" t="s">
-        <v>7</v>
+      <c r="H247" t="n">
+        <v>15.0</v>
       </c>
       <c r="I247" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J247" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K247" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="248">
@@ -9609,13 +8121,13 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C248" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D248" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E248" t="n">
         <v>8.0</v>
@@ -9626,17 +8138,11 @@
       <c r="G248" t="n">
         <v>38.0</v>
       </c>
-      <c r="H248" t="s">
-        <v>7</v>
+      <c r="H248" t="n">
+        <v>8.0</v>
       </c>
       <c r="I248" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K248" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="249">
@@ -9644,13 +8150,13 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="s">
+        <v>288</v>
+      </c>
+      <c r="C249" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" t="s">
         <v>290</v>
-      </c>
-      <c r="C249" t="s">
-        <v>291</v>
-      </c>
-      <c r="D249" t="s">
-        <v>292</v>
       </c>
       <c r="E249" t="n">
         <v>8.0</v>
@@ -9661,17 +8167,11 @@
       <c r="G249" t="n">
         <v>38.0</v>
       </c>
-      <c r="H249" t="s">
-        <v>7</v>
+      <c r="H249" t="n">
+        <v>8.0</v>
       </c>
       <c r="I249" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K249" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="250">
@@ -9679,13 +8179,13 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C250" t="s">
+        <v>289</v>
+      </c>
+      <c r="D250" t="s">
         <v>291</v>
-      </c>
-      <c r="D250" t="s">
-        <v>293</v>
       </c>
       <c r="E250" t="n">
         <v>8.0</v>
@@ -9696,17 +8196,11 @@
       <c r="G250" t="n">
         <v>38.0</v>
       </c>
-      <c r="H250" t="s">
-        <v>7</v>
+      <c r="H250" t="n">
+        <v>8.0</v>
       </c>
       <c r="I250" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J250" t="n">
         <v>4.0</v>
-      </c>
-      <c r="K250" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -9714,13 +8208,13 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C251" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D251" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E251" t="n">
         <v>8.0</v>
@@ -9731,17 +8225,11 @@
       <c r="G251" t="n">
         <v>38.0</v>
       </c>
-      <c r="H251" t="s">
-        <v>7</v>
+      <c r="H251" t="n">
+        <v>8.0</v>
       </c>
       <c r="I251" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J251" t="n">
         <v>6.0</v>
-      </c>
-      <c r="K251" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -9749,13 +8237,13 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C252" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D252" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E252" t="n">
         <v>8.0</v>
@@ -9766,17 +8254,11 @@
       <c r="G252" t="n">
         <v>38.0</v>
       </c>
-      <c r="H252" t="s">
-        <v>7</v>
+      <c r="H252" t="n">
+        <v>8.0</v>
       </c>
       <c r="I252" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K252" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="253">
@@ -9784,13 +8266,13 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C253" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D253" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E253" t="n">
         <v>8.0</v>
@@ -9801,17 +8283,11 @@
       <c r="G253" t="n">
         <v>38.0</v>
       </c>
-      <c r="H253" t="s">
-        <v>7</v>
+      <c r="H253" t="n">
+        <v>8.0</v>
       </c>
       <c r="I253" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K253" t="s">
-        <v>10</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="254">
@@ -9819,13 +8295,13 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C254" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D254" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E254" t="n">
         <v>8.0</v>
@@ -9836,17 +8312,11 @@
       <c r="G254" t="n">
         <v>38.0</v>
       </c>
-      <c r="H254" t="s">
-        <v>7</v>
+      <c r="H254" t="n">
+        <v>8.0</v>
       </c>
       <c r="I254" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K254" t="s">
-        <v>10</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="255">
@@ -9854,13 +8324,13 @@
         <v>254.0</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C255" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D255" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E255" t="n">
         <v>8.0</v>
@@ -9871,17 +8341,11 @@
       <c r="G255" t="n">
         <v>38.0</v>
       </c>
-      <c r="H255" t="s">
-        <v>7</v>
+      <c r="H255" t="n">
+        <v>8.0</v>
       </c>
       <c r="I255" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J255" t="n">
         <v>20.0</v>
-      </c>
-      <c r="K255" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
